--- a/chemprop-master/Data/Multitask_data/All_datasets/crossval_pred_analysis/ketone_cooh/Lipid selection for Idris.xlsx
+++ b/chemprop-master/Data/Multitask_data/All_datasets/crossval_pred_analysis/ketone_cooh/Lipid selection for Idris.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobwitten/Documents/Next_steps/Anderson/ML for NP design/Chemprop/chemprop-master/Data/Multitask_data/All_datasets/crossval_pred_analysis/ketone_cooh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobwitten/Documents/GitHub/LNP_ML/chemprop-master/Data/Multitask_data/All_datasets/crossval_pred_analysis/ketone_cooh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610131E-6C0B-B342-899A-17C6BCD6102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A7E43-4402-E343-BDE3-6B4C8AEFB8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{0CFAB7CB-DD87-D443-94FB-90963C9E2054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Lipid_name</t>
   </si>
@@ -254,13 +254,64 @@
   </si>
   <si>
     <t>Second best direct analogue to FO-32 (but CL09)</t>
+  </si>
+  <si>
+    <t>4K:a23|i02|o03|cl18&amp;o04</t>
+  </si>
+  <si>
+    <t>cl18&amp;o04</t>
+  </si>
+  <si>
+    <t>N(C)(C)CCCN(C(=O)/C=C\C(=O)OC(CCCCCCCC)CCCCCCCC)C(CCCC(=O)OCCC#CCCCCCC)(CCCC(=O)OCCC#CCCCCCC)C(=O)NCCCC</t>
+  </si>
+  <si>
+    <t>4K:a23|i02|o03|cl31&amp;o04</t>
+  </si>
+  <si>
+    <t>cl31&amp;o04</t>
+  </si>
+  <si>
+    <t>N(C)(C)CCCN(C(=O)/C=C\C=C/C(=O)OC(CCCCCCCC)CCCCCCCC)C(CCCC(=O)OCCC#CCCCCCC)(CCCC(=O)OCCC#CCCCCCC)C(=O)NCCCC</t>
+  </si>
+  <si>
+    <t>Second run</t>
+  </si>
+  <si>
+    <t>Best linker analogue to FO-32 by non-Morgan</t>
+  </si>
+  <si>
+    <t>Second best linker analogue to FO-32 by non-Morgan</t>
+  </si>
+  <si>
+    <t>4K:a23|i02|o03|cl04&amp;o04</t>
+  </si>
+  <si>
+    <t>cl04&amp;o04</t>
+  </si>
+  <si>
+    <t>N(C)(C)CCCN(C(=O)CCCC(=O)OC(CCCCCCCC)CCCCCCCC)C(CCCC(=O)OCCC#CCCCCCC)(CCCC(=O)OCCC#CCCCCCC)C(=O)NCCCC</t>
+  </si>
+  <si>
+    <t>4K:a23|i02|o03|cl26&amp;o04</t>
+  </si>
+  <si>
+    <t>cl26&amp;o04</t>
+  </si>
+  <si>
+    <t>N(C)(C)CCCN(C(=O)CSCC(=O)OC(CCCCCCCC)CCCCCCCC)C(CCCC(=O)OCCC#CCCCCCC)(CCCC(=O)OCCC#CCCCCCC)C(=O)NCCCC</t>
+  </si>
+  <si>
+    <t>Shorter linker analogues by Morgan</t>
+  </si>
+  <si>
+    <t>shorter linker analogues by Morgan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +322,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,11 +367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B3BC1-5E07-E842-8685-081C2A7A6269}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1195,6 +1255,151 @@
         <v>73</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>37606</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>0.58254577799999996</v>
+      </c>
+      <c r="I18">
+        <v>8.6903985000000003E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.0781875700000001</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>41570</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19">
+        <v>0.51619861600000005</v>
+      </c>
+      <c r="I19">
+        <v>8.2358661E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.95003857000000003</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20">
+        <v>1.24755046</v>
+      </c>
+      <c r="I20">
+        <v>-0.130491776</v>
+      </c>
+      <c r="J20">
+        <v>2.6255926949999999</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13655</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21">
+        <v>1.1328076250000001</v>
+      </c>
+      <c r="I21">
+        <v>-8.1981099000000002E-2</v>
+      </c>
+      <c r="J21">
+        <v>2.3475963489999998</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
